--- a/document/Kế hoạch thực hiện.xlsx
+++ b/document/Kế hoạch thực hiện.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>Thiết kế CSDL</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Resize ảnh</t>
   </si>
   <si>
-    <t>14/3/2018</t>
-  </si>
-  <si>
     <t>20/3/2018</t>
   </si>
   <si>
@@ -114,31 +111,55 @@
     <t>25/3/2018</t>
   </si>
   <si>
-    <t>30/03/2018</t>
-  </si>
-  <si>
     <t>15/4/2018</t>
   </si>
   <si>
     <t>5/4/2018</t>
   </si>
   <si>
-    <t>10/4/2018</t>
-  </si>
-  <si>
     <t>20/4/2018</t>
   </si>
   <si>
     <t>Lịch họp</t>
   </si>
   <si>
-    <t>15/3/2018</t>
-  </si>
-  <si>
-    <t>Họp thảo luận thiết kế CSDL</t>
-  </si>
-  <si>
     <t>updating……..</t>
+  </si>
+  <si>
+    <t>23/3/2018</t>
+  </si>
+  <si>
+    <t>Trang nội bộ</t>
+  </si>
+  <si>
+    <t>Quản lý thời khóa biểu</t>
+  </si>
+  <si>
+    <t>Quản lý văn bản</t>
+  </si>
+  <si>
+    <t>Quản lý category</t>
+  </si>
+  <si>
+    <t>3/4/2018</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>22/3/2018</t>
+  </si>
+  <si>
+    <t>Họp trao đổi vấn đề đội dự án, thống nhất triển khai dự án website</t>
   </si>
 </sst>
 </file>
@@ -162,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,18 +206,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,298 +549,433 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="F23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/document/Kế hoạch thực hiện.xlsx
+++ b/document/Kế hoạch thực hiện.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>Thiết kế CSDL</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Quản lý banner</t>
   </si>
   <si>
-    <t>Quản lý trang</t>
-  </si>
-  <si>
     <t>Quản lý menu</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Quản lý category</t>
   </si>
   <si>
-    <t>3/4/2018</t>
-  </si>
-  <si>
     <t>pending</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Họp trao đổi vấn đề đội dự án, thống nhất triển khai dự án website</t>
+  </si>
+  <si>
+    <t>31/3/2018</t>
+  </si>
+  <si>
+    <t>10/4/2018</t>
   </si>
 </sst>
 </file>
@@ -224,9 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -234,6 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,37 +549,37 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="7" max="7" width="9.140625" style="7"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="9"/>
+      <c r="F1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="8"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -587,25 +587,25 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -617,7 +617,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -627,16 +627,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,16 +645,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -663,34 +663,34 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -709,171 +709,172 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -881,94 +882,75 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="9"/>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="9"/>
+      <c r="F22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/document/Kế hoạch thực hiện.xlsx
+++ b/document/Kế hoạch thực hiện.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>Thiết kế CSDL</t>
   </si>
@@ -156,10 +156,10 @@
     <t>Họp trao đổi vấn đề đội dự án, thống nhất triển khai dự án website</t>
   </si>
   <si>
-    <t>31/3/2018</t>
-  </si>
-  <si>
     <t>10/4/2018</t>
+  </si>
+  <si>
+    <t>Đăng ký tuyển sinh</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,37 +694,37 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -732,8 +732,8 @@
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>41</v>
@@ -742,7 +742,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -750,8 +750,8 @@
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
@@ -760,7 +760,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -768,8 +768,8 @@
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
@@ -778,16 +778,16 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
@@ -796,7 +796,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -814,7 +814,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -823,7 +823,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>41</v>
@@ -832,7 +832,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -840,7 +840,7 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -848,38 +848,37 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="8"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
@@ -888,17 +887,17 @@
         <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
@@ -907,17 +906,17 @@
         <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
@@ -925,8 +924,8 @@
       <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>31</v>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>42</v>
@@ -936,7 +935,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
@@ -944,13 +943,32 @@
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="8"/>
+      <c r="F23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
